--- a/diaode/report.xlsx
+++ b/diaode/report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r05i42\Documents\工学実験\Reports\diaode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D3253C-D457-4042-ADBC-29DA9435B19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D377FE-794D-4DC9-8CBA-1ADCDBD7043F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B5D23B21-0EB3-4586-AE9F-5DD477EDD988}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>電圧</t>
     <rPh sb="0" eb="2">
@@ -229,15 +229,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>ダイオード</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>(Si)</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>の片対数グラフ</a:t>
+              <a:t>シリコン</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -246,7 +238,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.23727077865266838"/>
+          <c:x val="0.42136017021540945"/>
           <c:y val="1.3888888888888888E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -255,7 +247,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="bg1"/>
           </a:solidFill>
         </a:ln>
         <a:effectLst/>
@@ -4055,15 +4047,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4090,16 +4082,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>48490</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>210415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>249382</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>167986</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>268432</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>91786</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4162,16 +4154,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>328612</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>661987</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>642937</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4498,8 +4490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EB7A8C-E30C-406A-8FDD-513CA636930B}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4547,7 +4539,7 @@
       </c>
       <c r="B3">
         <f>(B5-B4)/(0.026*(LN(D5/D4)))</f>
-        <v>1.8155601908029504</v>
+        <v>1.9096393418113486</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
@@ -4558,15 +4550,15 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <f>H10</f>
-        <v>1.4549000000000001</v>
+        <f>A10</f>
+        <v>0.247</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2">
-        <f>I10</f>
-        <v>1.5E-3</v>
+        <f>B10</f>
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
@@ -4574,15 +4566,15 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <f>H18</f>
-        <v>1.7618</v>
+        <f>A17</f>
+        <v>0.49399999999999999</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2">
-        <f>I18</f>
-        <v>0.99919999999999998</v>
+        <f>B17</f>
+        <v>0.1013</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
@@ -4616,6 +4608,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
         <v>1</v>
       </c>
     </row>
